--- a/artfynd/A 72729-2021.xlsx
+++ b/artfynd/A 72729-2021.xlsx
@@ -683,7 +683,7 @@
         <v>112466124</v>
       </c>
       <c r="B2" t="n">
-        <v>93539</v>
+        <v>93553</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112466125</v>
+        <v>112466100</v>
       </c>
       <c r="B3" t="n">
-        <v>93539</v>
+        <v>57612</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,21 +798,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2180</v>
+        <v>208249</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Vanlig groda</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Rana temporaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>422832</v>
+        <v>422825</v>
       </c>
       <c r="R3" t="n">
-        <v>6338407</v>
+        <v>6338409</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -866,6 +866,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -884,10 +885,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112466100</v>
+        <v>112466125</v>
       </c>
       <c r="B4" t="n">
-        <v>57612</v>
+        <v>93553</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -900,21 +901,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>208249</v>
+        <v>2180</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vanlig groda</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Rana temporaria</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -924,10 +925,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>422825</v>
+        <v>422832</v>
       </c>
       <c r="R4" t="n">
-        <v>6338409</v>
+        <v>6338407</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -968,7 +969,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 72729-2021.xlsx
+++ b/artfynd/A 72729-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112466124</v>
+        <v>112466100</v>
       </c>
       <c r="B2" t="n">
-        <v>93553</v>
+        <v>57612</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2180</v>
+        <v>208249</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Vanlig groda</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Rana temporaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>422723</v>
+        <v>422825</v>
       </c>
       <c r="R2" t="n">
-        <v>6338393</v>
+        <v>6338409</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -764,6 +764,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -782,10 +783,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112466100</v>
+        <v>112466124</v>
       </c>
       <c r="B3" t="n">
-        <v>57612</v>
+        <v>93553</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,21 +799,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>208249</v>
+        <v>2180</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vanlig groda</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rana temporaria</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +823,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>422825</v>
+        <v>422723</v>
       </c>
       <c r="R3" t="n">
-        <v>6338409</v>
+        <v>6338393</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -866,7 +867,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 72729-2021.xlsx
+++ b/artfynd/A 72729-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112466100</v>
+        <v>112466124</v>
       </c>
       <c r="B2" t="n">
-        <v>57612</v>
+        <v>93553</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>208249</v>
+        <v>2180</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vanlig groda</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Rana temporaria</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>422825</v>
+        <v>422723</v>
       </c>
       <c r="R2" t="n">
-        <v>6338409</v>
+        <v>6338393</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -764,7 +764,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -783,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112466124</v>
+        <v>112466100</v>
       </c>
       <c r="B3" t="n">
-        <v>93553</v>
+        <v>57612</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -799,21 +798,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2180</v>
+        <v>208249</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Vanlig groda</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Rana temporaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -823,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>422723</v>
+        <v>422825</v>
       </c>
       <c r="R3" t="n">
-        <v>6338393</v>
+        <v>6338409</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -867,6 +866,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
